--- a/reportes/plantillaExcelFacturaPeaje.xlsx
+++ b/reportes/plantillaExcelFacturaPeaje.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="58">
   <si>
     <t>razon social</t>
   </si>
@@ -175,6 +175,21 @@
   </si>
   <si>
     <t>nro</t>
+  </si>
+  <si>
+    <t>desc</t>
+  </si>
+  <si>
+    <t>desc 0</t>
+  </si>
+  <si>
+    <t>desc 1</t>
+  </si>
+  <si>
+    <t>desc 2</t>
+  </si>
+  <si>
+    <t>desc 3</t>
   </si>
 </sst>
 </file>
@@ -503,7 +518,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -538,7 +553,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -747,10 +762,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z22"/>
+  <dimension ref="A1:AA22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3:G17"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -764,17 +779,17 @@
     <col min="10" max="10" width="27.5703125" customWidth="1"/>
     <col min="11" max="11" width="28.42578125" customWidth="1"/>
     <col min="12" max="12" width="17.5703125" customWidth="1"/>
-    <col min="13" max="13" width="19.5703125" customWidth="1"/>
-    <col min="14" max="14" width="16.7109375" customWidth="1"/>
-    <col min="15" max="15" width="24.42578125" customWidth="1"/>
-    <col min="16" max="16" width="32.28515625" customWidth="1"/>
-    <col min="17" max="17" width="43.5703125" customWidth="1"/>
-    <col min="18" max="18" width="38.42578125" customWidth="1"/>
-    <col min="25" max="25" width="48.42578125" customWidth="1"/>
-    <col min="26" max="26" width="40.5703125" customWidth="1"/>
+    <col min="13" max="14" width="19.5703125" customWidth="1"/>
+    <col min="15" max="15" width="16.7109375" customWidth="1"/>
+    <col min="16" max="16" width="24.42578125" customWidth="1"/>
+    <col min="17" max="17" width="32.28515625" customWidth="1"/>
+    <col min="18" max="18" width="43.5703125" customWidth="1"/>
+    <col min="19" max="19" width="38.42578125" customWidth="1"/>
+    <col min="26" max="26" width="48.42578125" customWidth="1"/>
+    <col min="27" max="27" width="40.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:26">
       <c r="A1" s="1" t="s">
         <v>52</v>
       </c>
@@ -814,23 +829,24 @@
       <c r="M1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="N1" s="7"/>
+      <c r="O1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="16" t="s">
+      <c r="P1" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="16" t="s">
+      <c r="Q1" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="Q1" s="16" t="s">
+      <c r="R1" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="Y1" s="16" t="s">
+      <c r="Z1" s="16" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:25">
+    <row r="2" spans="1:26">
       <c r="A2" s="8">
         <v>1</v>
       </c>
@@ -864,23 +880,24 @@
         <v>96115</v>
       </c>
       <c r="M2" s="9"/>
-      <c r="N2" s="15">
+      <c r="N2" s="9"/>
+      <c r="O2" s="15">
         <v>43516</v>
       </c>
-      <c r="O2" s="17" t="s">
+      <c r="P2" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="21" t="s">
+      <c r="Q2" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="Q2" s="21" t="s">
+      <c r="R2" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="Y2" s="21" t="s">
+      <c r="Z2" s="21" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:25">
+    <row r="3" spans="1:26">
       <c r="A3" s="8">
         <v>2</v>
       </c>
@@ -916,21 +933,24 @@
       <c r="M3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="N3" s="15">
+      <c r="N3" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="O3" s="15">
         <v>43517</v>
       </c>
-      <c r="O3" s="17"/>
-      <c r="P3" s="17" t="s">
+      <c r="P3" s="17"/>
+      <c r="Q3" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="Q3" s="21" t="s">
+      <c r="R3" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="Y3" s="21" t="s">
+      <c r="Z3" s="21" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:25">
+    <row r="4" spans="1:26">
       <c r="A4" s="8">
         <v>3</v>
       </c>
@@ -966,23 +986,26 @@
       <c r="M4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="N4" s="15">
+      <c r="N4" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="O4" s="15">
         <v>43518</v>
       </c>
-      <c r="O4" s="17" t="s">
+      <c r="P4" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="P4" s="21" t="s">
+      <c r="Q4" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="Q4" s="21" t="s">
+      <c r="R4" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="Y4" s="21" t="s">
+      <c r="Z4" s="21" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:25">
+    <row r="5" spans="1:26">
       <c r="A5" s="8">
         <v>4</v>
       </c>
@@ -1016,23 +1039,26 @@
       <c r="M5" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="N5" s="15">
+      <c r="N5" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="O5" s="15">
         <v>43519</v>
       </c>
-      <c r="O5" s="17" t="s">
+      <c r="P5" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="P5" s="17" t="s">
+      <c r="Q5" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="Q5" s="21" t="s">
+      <c r="R5" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="Y5" s="21" t="s">
+      <c r="Z5" s="21" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:25">
+    <row r="6" spans="1:26">
       <c r="A6" s="8">
         <v>5</v>
       </c>
@@ -1068,23 +1094,26 @@
       <c r="M6" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="N6" s="15">
+      <c r="N6" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="O6" s="15">
         <v>43520</v>
       </c>
-      <c r="O6" s="17" t="s">
+      <c r="P6" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="P6" s="21" t="s">
+      <c r="Q6" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="Q6" s="21" t="s">
+      <c r="R6" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="Y6" s="21" t="s">
+      <c r="Z6" s="21" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:25">
+    <row r="7" spans="1:26">
       <c r="A7" s="8">
         <v>6</v>
       </c>
@@ -1118,23 +1147,26 @@
       <c r="M7" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="N7" s="15">
+      <c r="N7" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="O7" s="15">
         <v>43521</v>
       </c>
-      <c r="O7" s="17" t="s">
+      <c r="P7" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="P7" s="17" t="s">
+      <c r="Q7" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="Q7" s="21" t="s">
+      <c r="R7" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="Y7" s="21" t="s">
+      <c r="Z7" s="21" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:25">
+    <row r="8" spans="1:26">
       <c r="A8" s="8">
         <v>7</v>
       </c>
@@ -1170,23 +1202,26 @@
       <c r="M8" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="N8" s="15">
+      <c r="N8" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="O8" s="15">
         <v>43522</v>
       </c>
-      <c r="O8" s="17" t="s">
+      <c r="P8" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="P8" s="17" t="s">
+      <c r="Q8" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="Q8" s="21" t="s">
+      <c r="R8" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="Y8" s="21" t="s">
+      <c r="Z8" s="21" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:25">
+    <row r="9" spans="1:26">
       <c r="A9" s="8">
         <v>8</v>
       </c>
@@ -1222,23 +1257,26 @@
       <c r="M9" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="N9" s="15">
+      <c r="N9" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="O9" s="15">
         <v>43523</v>
       </c>
-      <c r="O9" s="17" t="s">
+      <c r="P9" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="P9" s="21" t="s">
+      <c r="Q9" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="Q9" s="21" t="s">
+      <c r="R9" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="Y9" s="21" t="s">
+      <c r="Z9" s="21" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:25">
+    <row r="10" spans="1:26">
       <c r="A10" s="8">
         <v>9</v>
       </c>
@@ -1274,23 +1312,26 @@
       <c r="M10" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="N10" s="15">
+      <c r="N10" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="O10" s="15">
         <v>43524</v>
       </c>
-      <c r="O10" s="17" t="s">
+      <c r="P10" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="P10" s="17" t="s">
+      <c r="Q10" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="Q10" s="21" t="s">
+      <c r="R10" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="Y10" s="21" t="s">
+      <c r="Z10" s="21" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:25">
+    <row r="11" spans="1:26">
       <c r="A11" s="8">
         <v>10</v>
       </c>
@@ -1326,23 +1367,26 @@
       <c r="M11" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="N11" s="15">
+      <c r="N11" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="O11" s="15">
         <v>43525</v>
       </c>
-      <c r="O11" s="17" t="s">
+      <c r="P11" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="P11" s="21" t="s">
+      <c r="Q11" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="Q11" s="21" t="s">
+      <c r="R11" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="Y11" s="21" t="s">
+      <c r="Z11" s="21" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:25">
+    <row r="12" spans="1:26">
       <c r="A12" s="8">
         <v>11</v>
       </c>
@@ -1378,20 +1422,23 @@
       <c r="M12" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="N12" s="15">
+      <c r="N12" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="O12" s="15">
         <v>43526</v>
       </c>
-      <c r="O12" s="17" t="s">
+      <c r="P12" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="P12" s="17" t="s">
+      <c r="Q12" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="Q12" s="21" t="s">
+      <c r="R12" s="21" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:25">
+    <row r="13" spans="1:26">
       <c r="A13" s="8">
         <v>12</v>
       </c>
@@ -1427,20 +1474,23 @@
       <c r="M13" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="N13" s="15">
+      <c r="N13" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="O13" s="15">
         <v>43527</v>
       </c>
-      <c r="O13" s="17" t="s">
+      <c r="P13" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="P13" s="17" t="s">
+      <c r="Q13" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="Q13" s="21" t="s">
+      <c r="R13" s="21" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:25">
+    <row r="14" spans="1:26">
       <c r="A14" s="8">
         <v>12</v>
       </c>
@@ -1476,23 +1526,26 @@
       <c r="M14" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="N14" s="15">
+      <c r="N14" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="O14" s="15">
         <v>43527</v>
       </c>
-      <c r="O14" s="17" t="s">
+      <c r="P14" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="P14" s="21" t="s">
+      <c r="Q14" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="Q14" s="21" t="s">
+      <c r="R14" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="Y14" s="16" t="s">
+      <c r="Z14" s="16" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:25">
+    <row r="15" spans="1:26">
       <c r="A15" s="8">
         <v>12</v>
       </c>
@@ -1528,23 +1581,26 @@
       <c r="M15" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="N15" s="15">
+      <c r="N15" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="O15" s="15">
         <v>43527</v>
       </c>
-      <c r="O15" s="17" t="s">
+      <c r="P15" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="P15" s="17" t="s">
+      <c r="Q15" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="Q15" s="21" t="s">
+      <c r="R15" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="Y15" s="21" t="s">
+      <c r="Z15" s="21" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:25">
+    <row r="16" spans="1:26">
       <c r="A16" s="8">
         <v>12</v>
       </c>
@@ -1580,23 +1636,26 @@
       <c r="M16" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="N16" s="15">
+      <c r="N16" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="O16" s="15">
         <v>43527</v>
       </c>
-      <c r="O16" s="17" t="s">
+      <c r="P16" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="P16" s="17" t="s">
+      <c r="Q16" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="Q16" s="21" t="s">
+      <c r="R16" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="Y16" s="21" t="s">
+      <c r="Z16" s="21" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:26">
+    <row r="17" spans="1:27">
       <c r="A17" s="8">
         <v>12</v>
       </c>
@@ -1632,32 +1691,35 @@
       <c r="M17" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="N17" s="15">
+      <c r="N17" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="O17" s="15">
         <v>43527</v>
       </c>
-      <c r="O17" s="17" t="s">
+      <c r="P17" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="P17" s="17" t="s">
+      <c r="Q17" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="Q17" s="21" t="s">
+      <c r="R17" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="Y17" s="21" t="s">
+      <c r="Z17" s="21" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="18" spans="1:26">
-      <c r="Y18" s="21" t="s">
+    <row r="18" spans="1:27">
+      <c r="Z18" s="21" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:26">
-      <c r="Z20" s="22"/>
-    </row>
-    <row r="22" spans="1:26">
-      <c r="Z22" s="22"/>
+    <row r="20" spans="1:27">
+      <c r="AA20" s="22"/>
+    </row>
+    <row r="22" spans="1:27">
+      <c r="AA22" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/reportes/plantillaExcelFacturaPeaje.xlsx
+++ b/reportes/plantillaExcelFacturaPeaje.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="59">
   <si>
     <t>razon social</t>
   </si>
@@ -190,6 +190,9 @@
   </si>
   <si>
     <t>desc 3</t>
+  </si>
+  <si>
+    <t>descripcion</t>
   </si>
 </sst>
 </file>
@@ -765,7 +768,7 @@
   <dimension ref="A1:AA22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="N21" sqref="N21"/>
+      <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -829,7 +832,9 @@
       <c r="M1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="7"/>
+      <c r="N1" s="7" t="s">
+        <v>58</v>
+      </c>
       <c r="O1" s="7" t="s">
         <v>13</v>
       </c>
